--- a/Tables/Supp Table 12 - ZmWallace HPO Summary.xlsx
+++ b/Tables/Supp Table 12 - ZmWallace HPO Summary.xlsx
@@ -523,6 +523,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -543,25 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,7 +868,7 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,28 +879,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -909,32 +909,32 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="29"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="36"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -949,36 +949,36 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="30" t="s">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="29"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1056,7 +1056,7 @@
       <c r="I5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="33"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="6"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -1096,7 +1096,7 @@
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="27">
         <v>98</v>
       </c>
       <c r="K6" s="9">
@@ -1158,7 +1158,7 @@
       <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="27">
         <v>35</v>
       </c>
       <c r="K7" s="9">
@@ -1220,7 +1220,7 @@
       <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="27">
         <v>43</v>
       </c>
       <c r="K8" s="9">
@@ -1282,7 +1282,7 @@
       <c r="I9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="27">
         <v>302</v>
       </c>
       <c r="K9" s="9">
@@ -1344,7 +1344,7 @@
       <c r="I10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="27">
         <v>175</v>
       </c>
       <c r="K10" s="9">
@@ -1406,7 +1406,7 @@
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="27">
         <v>79</v>
       </c>
       <c r="K11" s="9">
@@ -1468,7 +1468,7 @@
       <c r="I12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="27">
         <v>4</v>
       </c>
       <c r="K12" s="9">
@@ -1530,7 +1530,7 @@
       <c r="I13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="27">
         <v>27</v>
       </c>
       <c r="K13" s="9">
@@ -1592,7 +1592,7 @@
       <c r="I14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="27">
         <v>5</v>
       </c>
       <c r="K14" s="9">
@@ -1654,7 +1654,7 @@
       <c r="I15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="27">
         <v>1</v>
       </c>
       <c r="K15" s="9">
@@ -1716,7 +1716,7 @@
       <c r="I16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="27">
         <v>44</v>
       </c>
       <c r="K16" s="9">
@@ -1778,7 +1778,7 @@
       <c r="I17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="27">
         <v>49</v>
       </c>
       <c r="K17" s="9">
@@ -1840,7 +1840,7 @@
       <c r="I18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="27">
         <v>2</v>
       </c>
       <c r="K18" s="9">
@@ -1902,37 +1902,37 @@
       <c r="I19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="35">
-        <v>0</v>
-      </c>
-      <c r="K19" s="32">
-        <v>0</v>
-      </c>
-      <c r="L19" s="31">
-        <v>0</v>
-      </c>
-      <c r="M19" s="31">
-        <v>0</v>
-      </c>
-      <c r="N19" s="37">
-        <v>0</v>
-      </c>
-      <c r="O19" s="32">
-        <v>0</v>
-      </c>
-      <c r="P19" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="31">
-        <v>0</v>
-      </c>
-      <c r="R19" s="37">
-        <v>0</v>
-      </c>
-      <c r="S19" s="32">
-        <v>0</v>
-      </c>
-      <c r="T19" s="37">
+      <c r="J19" s="28">
+        <v>0</v>
+      </c>
+      <c r="K19" s="25">
+        <v>0</v>
+      </c>
+      <c r="L19" s="24">
+        <v>0</v>
+      </c>
+      <c r="M19" s="24">
+        <v>0</v>
+      </c>
+      <c r="N19" s="30">
+        <v>0</v>
+      </c>
+      <c r="O19" s="25">
+        <v>0</v>
+      </c>
+      <c r="P19" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>0</v>
+      </c>
+      <c r="R19" s="30">
+        <v>0</v>
+      </c>
+      <c r="S19" s="25">
+        <v>0</v>
+      </c>
+      <c r="T19" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       <c r="I20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="27">
         <v>3</v>
       </c>
       <c r="K20" s="9">
@@ -2026,7 +2026,7 @@
       <c r="I21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="27">
         <v>8</v>
       </c>
       <c r="K21" s="9">
@@ -2088,7 +2088,7 @@
       <c r="I22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="27">
         <v>32</v>
       </c>
       <c r="K22" s="9">
@@ -2150,7 +2150,7 @@
       <c r="I23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="27">
         <v>1</v>
       </c>
       <c r="K23" s="9">
@@ -2212,7 +2212,7 @@
       <c r="I24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="27">
         <v>25</v>
       </c>
       <c r="K24" s="9">
@@ -2274,37 +2274,37 @@
       <c r="I25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="35">
-        <v>0</v>
-      </c>
-      <c r="K25" s="32">
-        <v>0</v>
-      </c>
-      <c r="L25" s="31">
-        <v>0</v>
-      </c>
-      <c r="M25" s="31">
-        <v>0</v>
-      </c>
-      <c r="N25" s="37">
-        <v>0</v>
-      </c>
-      <c r="O25" s="32">
-        <v>0</v>
-      </c>
-      <c r="P25" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="31">
-        <v>0</v>
-      </c>
-      <c r="R25" s="37">
-        <v>0</v>
-      </c>
-      <c r="S25" s="32">
-        <v>0</v>
-      </c>
-      <c r="T25" s="37">
+      <c r="J25" s="28">
+        <v>0</v>
+      </c>
+      <c r="K25" s="25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="24">
+        <v>0</v>
+      </c>
+      <c r="M25" s="24">
+        <v>0</v>
+      </c>
+      <c r="N25" s="30">
+        <v>0</v>
+      </c>
+      <c r="O25" s="25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>0</v>
+      </c>
+      <c r="R25" s="30">
+        <v>0</v>
+      </c>
+      <c r="S25" s="25">
+        <v>0</v>
+      </c>
+      <c r="T25" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       <c r="I26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="27">
         <v>65</v>
       </c>
       <c r="K26" s="9">
@@ -2398,37 +2398,37 @@
       <c r="I27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="35">
-        <v>0</v>
-      </c>
-      <c r="K27" s="32">
-        <v>0</v>
-      </c>
-      <c r="L27" s="31">
-        <v>0</v>
-      </c>
-      <c r="M27" s="31">
-        <v>0</v>
-      </c>
-      <c r="N27" s="37">
-        <v>0</v>
-      </c>
-      <c r="O27" s="32">
-        <v>0</v>
-      </c>
-      <c r="P27" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="31">
-        <v>0</v>
-      </c>
-      <c r="R27" s="37">
-        <v>0</v>
-      </c>
-      <c r="S27" s="32">
-        <v>0</v>
-      </c>
-      <c r="T27" s="37">
+      <c r="J27" s="28">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <v>0</v>
+      </c>
+      <c r="L27" s="24">
+        <v>0</v>
+      </c>
+      <c r="M27" s="24">
+        <v>0</v>
+      </c>
+      <c r="N27" s="30">
+        <v>0</v>
+      </c>
+      <c r="O27" s="25">
+        <v>0</v>
+      </c>
+      <c r="P27" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="24">
+        <v>0</v>
+      </c>
+      <c r="R27" s="30">
+        <v>0</v>
+      </c>
+      <c r="S27" s="25">
+        <v>0</v>
+      </c>
+      <c r="T27" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       <c r="I28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="27">
         <v>54</v>
       </c>
       <c r="K28" s="9">
@@ -2522,7 +2522,7 @@
       <c r="I29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="27">
         <v>79</v>
       </c>
       <c r="K29" s="9">
@@ -2584,7 +2584,7 @@
       <c r="I30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="27">
         <v>134</v>
       </c>
       <c r="K30" s="9">
@@ -2646,7 +2646,7 @@
       <c r="I31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="27">
         <v>28</v>
       </c>
       <c r="K31" s="9">
@@ -2708,37 +2708,37 @@
       <c r="I32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="35">
-        <v>0</v>
-      </c>
-      <c r="K32" s="32">
-        <v>0</v>
-      </c>
-      <c r="L32" s="31">
-        <v>0</v>
-      </c>
-      <c r="M32" s="31">
-        <v>0</v>
-      </c>
-      <c r="N32" s="37">
-        <v>0</v>
-      </c>
-      <c r="O32" s="32">
-        <v>0</v>
-      </c>
-      <c r="P32" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="31">
-        <v>0</v>
-      </c>
-      <c r="R32" s="37">
-        <v>0</v>
-      </c>
-      <c r="S32" s="32">
-        <v>0</v>
-      </c>
-      <c r="T32" s="37">
+      <c r="J32" s="28">
+        <v>0</v>
+      </c>
+      <c r="K32" s="25">
+        <v>0</v>
+      </c>
+      <c r="L32" s="24">
+        <v>0</v>
+      </c>
+      <c r="M32" s="24">
+        <v>0</v>
+      </c>
+      <c r="N32" s="30">
+        <v>0</v>
+      </c>
+      <c r="O32" s="25">
+        <v>0</v>
+      </c>
+      <c r="P32" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="24">
+        <v>0</v>
+      </c>
+      <c r="R32" s="30">
+        <v>0</v>
+      </c>
+      <c r="S32" s="25">
+        <v>0</v>
+      </c>
+      <c r="T32" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2770,7 +2770,7 @@
       <c r="I33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="27">
         <v>2</v>
       </c>
       <c r="K33" s="9">
@@ -2832,37 +2832,37 @@
       <c r="I34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="35">
-        <v>0</v>
-      </c>
-      <c r="K34" s="32">
-        <v>0</v>
-      </c>
-      <c r="L34" s="31">
-        <v>0</v>
-      </c>
-      <c r="M34" s="31">
-        <v>0</v>
-      </c>
-      <c r="N34" s="37">
-        <v>0</v>
-      </c>
-      <c r="O34" s="32">
-        <v>0</v>
-      </c>
-      <c r="P34" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="31">
-        <v>0</v>
-      </c>
-      <c r="R34" s="37">
-        <v>0</v>
-      </c>
-      <c r="S34" s="32">
-        <v>0</v>
-      </c>
-      <c r="T34" s="37">
+      <c r="J34" s="28">
+        <v>0</v>
+      </c>
+      <c r="K34" s="25">
+        <v>0</v>
+      </c>
+      <c r="L34" s="24">
+        <v>0</v>
+      </c>
+      <c r="M34" s="24">
+        <v>0</v>
+      </c>
+      <c r="N34" s="30">
+        <v>0</v>
+      </c>
+      <c r="O34" s="25">
+        <v>0</v>
+      </c>
+      <c r="P34" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>0</v>
+      </c>
+      <c r="R34" s="30">
+        <v>0</v>
+      </c>
+      <c r="S34" s="25">
+        <v>0</v>
+      </c>
+      <c r="T34" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       <c r="I35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="27">
         <v>28</v>
       </c>
       <c r="K35" s="9">
@@ -2956,7 +2956,7 @@
       <c r="I36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="27">
         <v>10</v>
       </c>
       <c r="K36" s="9">
@@ -3018,7 +3018,7 @@
       <c r="I37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="34">
+      <c r="J37" s="27">
         <v>7</v>
       </c>
       <c r="K37" s="9">
@@ -3080,37 +3080,37 @@
       <c r="I38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J38" s="35">
-        <v>0</v>
-      </c>
-      <c r="K38" s="32">
-        <v>0</v>
-      </c>
-      <c r="L38" s="31">
-        <v>0</v>
-      </c>
-      <c r="M38" s="31">
-        <v>0</v>
-      </c>
-      <c r="N38" s="37">
-        <v>0</v>
-      </c>
-      <c r="O38" s="32">
-        <v>0</v>
-      </c>
-      <c r="P38" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="31">
-        <v>0</v>
-      </c>
-      <c r="R38" s="37">
-        <v>0</v>
-      </c>
-      <c r="S38" s="32">
-        <v>0</v>
-      </c>
-      <c r="T38" s="37">
+      <c r="J38" s="28">
+        <v>0</v>
+      </c>
+      <c r="K38" s="25">
+        <v>0</v>
+      </c>
+      <c r="L38" s="24">
+        <v>0</v>
+      </c>
+      <c r="M38" s="24">
+        <v>0</v>
+      </c>
+      <c r="N38" s="30">
+        <v>0</v>
+      </c>
+      <c r="O38" s="25">
+        <v>0</v>
+      </c>
+      <c r="P38" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="24">
+        <v>0</v>
+      </c>
+      <c r="R38" s="30">
+        <v>0</v>
+      </c>
+      <c r="S38" s="25">
+        <v>0</v>
+      </c>
+      <c r="T38" s="30">
         <v>0</v>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
       <c r="I39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39" s="27">
         <v>44</v>
       </c>
       <c r="K39" s="9">
@@ -3204,7 +3204,7 @@
       <c r="I40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J40" s="34">
+      <c r="J40" s="27">
         <v>61</v>
       </c>
       <c r="K40" s="9">
@@ -3266,37 +3266,37 @@
       <c r="I41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="35">
-        <v>0</v>
-      </c>
-      <c r="K41" s="32">
-        <v>0</v>
-      </c>
-      <c r="L41" s="31">
-        <v>0</v>
-      </c>
-      <c r="M41" s="31">
-        <v>0</v>
-      </c>
-      <c r="N41" s="37">
-        <v>0</v>
-      </c>
-      <c r="O41" s="32">
-        <v>0</v>
-      </c>
-      <c r="P41" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="31">
-        <v>0</v>
-      </c>
-      <c r="R41" s="37">
-        <v>0</v>
-      </c>
-      <c r="S41" s="32">
-        <v>0</v>
-      </c>
-      <c r="T41" s="37">
+      <c r="J41" s="28">
+        <v>0</v>
+      </c>
+      <c r="K41" s="25">
+        <v>0</v>
+      </c>
+      <c r="L41" s="24">
+        <v>0</v>
+      </c>
+      <c r="M41" s="24">
+        <v>0</v>
+      </c>
+      <c r="N41" s="30">
+        <v>0</v>
+      </c>
+      <c r="O41" s="25">
+        <v>0</v>
+      </c>
+      <c r="P41" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="24">
+        <v>0</v>
+      </c>
+      <c r="R41" s="30">
+        <v>0</v>
+      </c>
+      <c r="S41" s="25">
+        <v>0</v>
+      </c>
+      <c r="T41" s="30">
         <v>0</v>
       </c>
     </row>
@@ -3328,7 +3328,7 @@
       <c r="I42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="27">
         <v>5</v>
       </c>
       <c r="K42" s="9">
@@ -3390,7 +3390,7 @@
       <c r="I43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J43" s="34">
+      <c r="J43" s="27">
         <v>3</v>
       </c>
       <c r="K43" s="9">
@@ -3452,7 +3452,7 @@
       <c r="I44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="34">
+      <c r="J44" s="27">
         <v>88</v>
       </c>
       <c r="K44" s="9">
@@ -3514,7 +3514,7 @@
       <c r="I45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J45" s="34">
+      <c r="J45" s="27">
         <v>7</v>
       </c>
       <c r="K45" s="9">
@@ -3576,7 +3576,7 @@
       <c r="I46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="29">
         <v>0</v>
       </c>
       <c r="K46" s="15">

--- a/Tables/Supp Table 12 - ZmWallace HPO Summary.xlsx
+++ b/Tables/Supp Table 12 - ZmWallace HPO Summary.xlsx
@@ -222,7 +222,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>HPO genes discovered from non-ionomic traits</t>
+      <t xml:space="preserve">HPO genes discovered from non-ionomic traits. </t>
     </r>
     <r>
       <rPr>
@@ -232,8 +232,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-HPO genes were identified with Camoco using SNPs from 41 GWAS described in Wallace et al. SNP-to-gene mapping was performed using 50kb and 100kb windows including either 1 or 2 additional flanking genes upstream and downstream of effective loci. Gene specific density and locality metrics for each trait were compared to (n=1,000) random sets of genes of the same size to establish a 10% FDR. Genes were considerd HPO if they were observed in two or more SNP to gene mappings (see Materials and Methods). Candidates in the "Either" column are HPO genes discovered by either density or locality in any network. The number of genes discovered for each element is further broken down by co-expression method (density, locality, both) and by network (ZmPAN, ZmSAM, ZmRoot). Candidates in the "Both" column were discovered by density and locality in the same network or in different networks (Any). Note: zero elements had HPO genes using “Both” methods in the ZmPAN and ZmSAM networks.</t>
+      <t>HPO genes were identified with Camoco using SNPs from 41 GWAS described in Wallace et al. SNP-to-gene mapping was performed using 50kb and 100kb windows including either 1 or 2 additional flanking genes upstream and downstream of effective loci. Gene specific density and locality metrics for each trait were compared to (n=1,000) random sets of genes of the same size to establish a 10% FDR. Genes were considered HPO if they were observed in two or more SNP to gene mappings (see Materials and Methods). Candidates in the "Either" column are HPO genes discovered by either density or locality in any network. The number of genes discovered for each element is further broken down by co-expression method (density, locality, both) and by network (ZmPAN, ZmSAM, ZmRoot). Candidates in the "Both" column were discovered by density and locality in the same network or in different networks (Any). Note: zero elements had HPO genes using “Both” methods in the ZmPAN and ZmSAM networks. Supports Figure 1.</t>
     </r>
   </si>
 </sst>
@@ -868,7 +867,7 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
